--- a/Estudio-FG/ataques_sin_detecciones.xlsx
+++ b/Estudio-FG/ataques_sin_detecciones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uses0-my.sharepoint.com/personal/javgarbor2_alum_us_es/Documents/US/TFG/Doc-Analisis_con_FG/DETECCIONES/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="86" documentId="11_F25DC773A252ABDACC104898E15E56025BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD5A4A99-911A-4C5E-89B6-6ECB3AE38B55}"/>
+  <xr:revisionPtr revIDLastSave="142" documentId="11_F25DC773A252ABDACC104898E15E56025BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6D2FCC0-3876-4F7C-A78F-7690A94C2715}"/>
   <bookViews>
-    <workbookView xWindow="17740" yWindow="1440" windowWidth="19280" windowHeight="19350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7160" yWindow="970" windowWidth="30470" windowHeight="19350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="128">
   <si>
     <t>Fichero PCAP</t>
   </si>
@@ -45,9 +45,6 @@
     <t>T1001.003-Data_obfuscation_protocol_impersonation_[4].pcapng</t>
   </si>
   <si>
-    <t>T1003-Os_credential_dumping_dcsync_[4].pcapng</t>
-  </si>
-  <si>
     <t>T1008-Fallback_channels_[4].pcapng</t>
   </si>
   <si>
@@ -60,9 +57,6 @@
     <t>T1020.001-Automated_exfiltration_traffic_duplication_[4].pcapng</t>
   </si>
   <si>
-    <t>T1021-remote_services_ssh_[3].pcapng</t>
-  </si>
-  <si>
     <t>T1029-Scheduled_transfer_[4].pcapng</t>
   </si>
   <si>
@@ -72,9 +66,6 @@
     <t>T1033-System_owner_[4].pcapng</t>
   </si>
   <si>
-    <t>T1039-Data_from_network_shared_drive_[4].pcapng</t>
-  </si>
-  <si>
     <t>T1040-Autenticacion_[1].pcapng</t>
   </si>
   <si>
@@ -87,9 +78,6 @@
     <t>T1040-Mac_flood_[1].pcapng</t>
   </si>
   <si>
-    <t>T1041-exfiltration_over_c2_channel_[3].pcapng</t>
-  </si>
-  <si>
     <t>T1046-Version_services_detection1_[3].pcapng</t>
   </si>
   <si>
@@ -111,9 +99,6 @@
     <t>T1053.002-Scheduled_TaskJob_At_[5].pcapng</t>
   </si>
   <si>
-    <t>T1070-Indicator_removal_network_share_connection_removal_[4].pcapng</t>
-  </si>
-  <si>
     <t>T1071-Tunel_[1].pcapng</t>
   </si>
   <si>
@@ -126,9 +111,6 @@
     <t>T1095-Non_Application_Layer_[3].pcapng</t>
   </si>
   <si>
-    <t>T1102.003-Web_service-one_way_communication_[4].pcapng</t>
-  </si>
-  <si>
     <t>T1104-Multi_stage_channels_[4].pcapng</t>
   </si>
   <si>
@@ -189,9 +171,6 @@
     <t>T1205.001-Port_Knocking_[3].pcapng</t>
   </si>
   <si>
-    <t>T1207-Rogue_domain_controller_[4].pcapng</t>
-  </si>
-  <si>
     <t>T1210-Web_attack-C2018_[6].pcapng</t>
   </si>
   <si>
@@ -201,12 +180,6 @@
     <t>T1218.010-COM_Scriptlet_[2].pcapng</t>
   </si>
   <si>
-    <t>T1219-RemoteAccessSoftwareLocal_[5].pcapng</t>
-  </si>
-  <si>
-    <t>T1219-RemoteAccessSoftwareNAT_[5].pcapng</t>
-  </si>
-  <si>
     <t>T1221-Template_Injection_[5].pcapng</t>
   </si>
   <si>
@@ -288,9 +261,6 @@
     <t>T1534-Internal_spearphishing_[4].pcapng</t>
   </si>
   <si>
-    <t>T1537-Transfer_Data_to_Cloud_Account_[5].pcapng</t>
-  </si>
-  <si>
     <t>T1542.005-TFTP_Boot_[5].pcapng</t>
   </si>
   <si>
@@ -330,9 +300,6 @@
     <t>T1568-fastFluxDNS_[5].pcapng</t>
   </si>
   <si>
-    <t>T1569-System_services_service_execution_[4].pcapng</t>
-  </si>
-  <si>
     <t>T1570-Lateral_Tool_Transfer_[5].pcapng</t>
   </si>
   <si>
@@ -342,9 +309,6 @@
     <t>T1572-Protocol_Tunneling_[5].pcapng</t>
   </si>
   <si>
-    <t>T1573.002_AssymetricCryptography_[5].pcapng</t>
-  </si>
-  <si>
     <t>T1584-Cache_dns_[1].pcapng</t>
   </si>
   <si>
@@ -372,9 +336,6 @@
     <t>T1595.003-Web_page_scanning2_[3].pcapng</t>
   </si>
   <si>
-    <t>T1596.001-DNS_Transfer_[2].pcapng</t>
-  </si>
-  <si>
     <t>T1598.003-Spearphishing_Link_[5].pcapng</t>
   </si>
   <si>
@@ -393,9 +354,6 @@
     <t>T1612-BuildImageOnHostLocal_[5].pcapng</t>
   </si>
   <si>
-    <t>T1612-BuildImageOnHostNAT_[5].pcapng</t>
-  </si>
-  <si>
     <t>T1615-Group_Policy_Discovery_[5].pcapng</t>
   </si>
   <si>
@@ -411,45 +369,9 @@
     <t>-</t>
   </si>
   <si>
-    <t>Directory.Replication.Service.Remote.Protocol.DSGetNCChanges</t>
-  </si>
-  <si>
-    <t>SSH</t>
-  </si>
-  <si>
-    <t>Windows.File.Sharing_Read.File</t>
-  </si>
-  <si>
-    <t>File.Upload.HTTP</t>
-  </si>
-  <si>
     <t>Portmap</t>
   </si>
   <si>
-    <t>Windows.File.Sharing</t>
-  </si>
-  <si>
-    <t>Google.Services</t>
-  </si>
-  <si>
-    <t>TeamViewer</t>
-  </si>
-  <si>
-    <t>Microsoft.Portal</t>
-  </si>
-  <si>
-    <t>PsExec, Microsoft.Service.Controller</t>
-  </si>
-  <si>
-    <t>SSL_TLSv1.3</t>
-  </si>
-  <si>
-    <t>DNS_Zone.Transfer</t>
-  </si>
-  <si>
-    <t>Docker</t>
-  </si>
-  <si>
     <t>Nº Flujos con Ataque Detectados (Principales) IPS</t>
   </si>
   <si>
@@ -478,6 +400,15 @@
   </si>
   <si>
     <t>MS.WinRM.Script.Exec.Remote.Code.Execution</t>
+  </si>
+  <si>
+    <t>Categoría del Ataque</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>L2</t>
   </si>
 </sst>
 </file>
@@ -551,7 +482,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -564,6 +495,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -849,10 +783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F124"/>
+  <dimension ref="A1:G110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C8" workbookViewId="0">
-      <selection activeCell="F123" sqref="F123"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -863,9 +797,10 @@
     <col min="4" max="4" width="39.7265625" customWidth="1"/>
     <col min="5" max="5" width="32.6328125" customWidth="1"/>
     <col min="6" max="6" width="41.90625" customWidth="1"/>
+    <col min="7" max="7" width="18.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -876,16 +811,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -899,10 +837,13 @@
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="25" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="25" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -916,78 +857,93 @@
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="25" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="1">
-        <v>1</v>
+        <v>1002</v>
       </c>
       <c r="C6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="1">
-        <v>1002</v>
+        <v>1</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -995,16 +951,19 @@
         <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -1018,10 +977,13 @@
         <v>0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1029,16 +991,19 @@
         <v>1</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -1052,10 +1017,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1069,10 +1037,13 @@
         <v>0</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -1086,15 +1057,18 @@
         <v>0</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="1">
-        <v>1</v>
+        <v>10674</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -1103,66 +1077,78 @@
         <v>0</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="1">
-        <v>1</v>
+        <v>158</v>
       </c>
       <c r="C15" s="1">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="D15" s="1">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="1">
-        <v>1</v>
+        <v>65680</v>
       </c>
       <c r="C16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="1">
-        <v>10674</v>
+        <v>1</v>
       </c>
       <c r="C17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="1">
-        <v>1</v>
+        <v>450</v>
       </c>
       <c r="C18" s="1">
         <v>0</v>
@@ -1171,44 +1157,56 @@
         <v>0</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="F18" t="s">
+        <v>124</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="1">
-        <v>158</v>
+        <v>1</v>
       </c>
       <c r="C19" s="1">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="D19" s="1">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B20" s="1">
-        <v>65680</v>
+        <v>1</v>
       </c>
       <c r="C20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -1222,30 +1220,33 @@
         <v>0</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B22" s="1">
-        <v>450</v>
+        <v>10</v>
       </c>
       <c r="C22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F22" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -1253,16 +1254,19 @@
         <v>1</v>
       </c>
       <c r="C23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
       </c>
       <c r="E23" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G23" s="6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
@@ -1270,16 +1274,19 @@
         <v>1</v>
       </c>
       <c r="C24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
@@ -1293,10 +1300,13 @@
         <v>0</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="37.5" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
@@ -1304,33 +1314,42 @@
         <v>1</v>
       </c>
       <c r="C26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" s="1">
         <v>0</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="1">
-        <v>10</v>
+        <v>190300</v>
       </c>
       <c r="C27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
@@ -1338,16 +1357,19 @@
         <v>1</v>
       </c>
       <c r="C28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" s="1">
         <v>0</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
@@ -1355,16 +1377,19 @@
         <v>1</v>
       </c>
       <c r="C29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" s="1">
         <v>0</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
@@ -1372,16 +1397,19 @@
         <v>1</v>
       </c>
       <c r="C30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
@@ -1389,16 +1417,19 @@
         <v>1</v>
       </c>
       <c r="C31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" s="1">
         <v>0</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
@@ -1406,21 +1437,24 @@
         <v>1</v>
       </c>
       <c r="C32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" s="1">
         <v>0</v>
       </c>
       <c r="E32" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G32" s="6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B33" s="1">
-        <v>190300</v>
+        <v>3</v>
       </c>
       <c r="C33" s="1">
         <v>0</v>
@@ -1429,18 +1463,18 @@
         <v>0</v>
       </c>
       <c r="E33" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G33" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="F33" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B34" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C34" s="1">
         <v>0</v>
@@ -1449,10 +1483,13 @@
         <v>0</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>37</v>
       </c>
@@ -1466,15 +1503,18 @@
         <v>0</v>
       </c>
       <c r="E35" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G35" s="6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B36" s="1">
-        <v>1</v>
+        <v>212</v>
       </c>
       <c r="C36" s="1">
         <v>0</v>
@@ -1483,10 +1523,13 @@
         <v>0</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>39</v>
       </c>
@@ -1500,10 +1543,13 @@
         <v>0</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>40</v>
       </c>
@@ -1517,15 +1563,18 @@
         <v>0</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B39" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C39" s="1">
         <v>0</v>
@@ -1534,15 +1583,18 @@
         <v>0</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B40" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C40" s="1">
         <v>0</v>
@@ -1551,15 +1603,18 @@
         <v>0</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B41" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C41" s="1">
         <v>0</v>
@@ -1568,15 +1623,18 @@
         <v>0</v>
       </c>
       <c r="E41" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G41" s="6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B42" s="1">
-        <v>212</v>
+        <v>1</v>
       </c>
       <c r="C42" s="1">
         <v>0</v>
@@ -1585,15 +1643,18 @@
         <v>0</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B43" s="1">
-        <v>1</v>
+        <v>116</v>
       </c>
       <c r="C43" s="1">
         <v>0</v>
@@ -1602,10 +1663,13 @@
         <v>0</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>46</v>
       </c>
@@ -1619,10 +1683,13 @@
         <v>0</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>47</v>
       </c>
@@ -1636,15 +1703,18 @@
         <v>0</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B46" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C46" s="1">
         <v>0</v>
@@ -1653,15 +1723,18 @@
         <v>0</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B47" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C47" s="1">
         <v>0</v>
@@ -1670,10 +1743,16 @@
         <v>0</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="F47" t="s">
+        <v>118</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>50</v>
       </c>
@@ -1687,15 +1766,18 @@
         <v>0</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B49" s="1">
-        <v>116</v>
+        <v>1</v>
       </c>
       <c r="C49" s="1">
         <v>0</v>
@@ -1704,10 +1786,13 @@
         <v>0</v>
       </c>
       <c r="E49" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G49" s="6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>52</v>
       </c>
@@ -1721,10 +1806,13 @@
         <v>0</v>
       </c>
       <c r="E50" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G50" s="6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>53</v>
       </c>
@@ -1738,10 +1826,13 @@
         <v>0</v>
       </c>
       <c r="E51" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G51" s="6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="25" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>54</v>
       </c>
@@ -1755,10 +1846,13 @@
         <v>0</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>55</v>
       </c>
@@ -1772,15 +1866,18 @@
         <v>0</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B54" s="1">
-        <v>1</v>
+        <v>21711</v>
       </c>
       <c r="C54" s="1">
         <v>0</v>
@@ -1789,18 +1886,18 @@
         <v>0</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F54" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B55" s="1">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="C55" s="1">
         <v>0</v>
@@ -1809,15 +1906,18 @@
         <v>0</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B56" s="1">
-        <v>1</v>
+        <v>1473</v>
       </c>
       <c r="C56" s="1">
         <v>0</v>
@@ -1826,15 +1926,18 @@
         <v>0</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B57" s="1">
-        <v>1</v>
+        <v>29179</v>
       </c>
       <c r="C57" s="1">
         <v>0</v>
@@ -1843,15 +1946,18 @@
         <v>0</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B58" s="1">
-        <v>1</v>
+        <v>536494</v>
       </c>
       <c r="C58" s="1">
         <v>0</v>
@@ -1860,10 +1966,13 @@
         <v>0</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>61</v>
       </c>
@@ -1877,27 +1986,36 @@
         <v>0</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B60" s="1">
-        <v>1</v>
+        <v>5173</v>
       </c>
       <c r="C60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D60" s="1">
         <v>0</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="F60" t="s">
+        <v>121</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>63</v>
       </c>
@@ -1911,10 +2029,13 @@
         <v>0</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>64</v>
       </c>
@@ -1928,15 +2049,18 @@
         <v>0</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B63" s="1">
-        <v>21711</v>
+        <v>150</v>
       </c>
       <c r="C63" s="1">
         <v>0</v>
@@ -1945,15 +2069,21 @@
         <v>0</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="F63" t="s">
+        <v>119</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B64" s="1">
-        <v>110</v>
+        <v>2332</v>
       </c>
       <c r="C64" s="1">
         <v>0</v>
@@ -1962,15 +2092,18 @@
         <v>0</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B65" s="1">
-        <v>1473</v>
+        <v>1</v>
       </c>
       <c r="C65" s="1">
         <v>0</v>
@@ -1979,15 +2112,21 @@
         <v>0</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="F65" t="s">
+        <v>123</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B66" s="1">
-        <v>29179</v>
+        <v>1</v>
       </c>
       <c r="C66" s="1">
         <v>0</v>
@@ -1996,15 +2135,18 @@
         <v>0</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B67" s="1">
-        <v>536494</v>
+        <v>1</v>
       </c>
       <c r="C67" s="1">
         <v>0</v>
@@ -2013,15 +2155,18 @@
         <v>0</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B68" s="1">
-        <v>1</v>
+        <v>952</v>
       </c>
       <c r="C68" s="1">
         <v>0</v>
@@ -2030,52 +2175,64 @@
         <v>0</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B69" s="1">
-        <v>5173</v>
+        <v>10550</v>
       </c>
       <c r="C69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D69" s="1">
         <v>0</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="F69" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B70" s="1">
-        <v>1</v>
+        <v>6979</v>
       </c>
       <c r="C70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D70" s="1">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="F70" t="s">
+        <v>119</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B71" s="1">
-        <v>1</v>
+        <v>44878</v>
       </c>
       <c r="C71" s="1">
         <v>0</v>
@@ -2084,15 +2241,18 @@
         <v>0</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B72" s="1">
-        <v>150</v>
+        <v>27772</v>
       </c>
       <c r="C72" s="1">
         <v>0</v>
@@ -2101,18 +2261,18 @@
         <v>0</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F72" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B73" s="1">
-        <v>2332</v>
+        <v>1</v>
       </c>
       <c r="C73" s="1">
         <v>0</v>
@@ -2121,10 +2281,13 @@
         <v>0</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>76</v>
       </c>
@@ -2138,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F74" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>77</v>
       </c>
@@ -2158,10 +2321,13 @@
         <v>0</v>
       </c>
       <c r="E75" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G75" s="6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>78</v>
       </c>
@@ -2175,15 +2341,18 @@
         <v>0</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B77" s="1">
-        <v>952</v>
+        <v>1</v>
       </c>
       <c r="C77" s="1">
         <v>0</v>
@@ -2192,15 +2361,18 @@
         <v>0</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B78" s="1">
-        <v>10550</v>
+        <v>1</v>
       </c>
       <c r="C78" s="1">
         <v>0</v>
@@ -2209,38 +2381,38 @@
         <v>0</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F78" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B79" s="1">
-        <v>6979</v>
+        <v>1</v>
       </c>
       <c r="C79" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D79" s="1">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F79" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B80" s="1">
-        <v>44878</v>
+        <v>1</v>
       </c>
       <c r="C80" s="1">
         <v>0</v>
@@ -2249,15 +2421,18 @@
         <v>0</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B81" s="1">
-        <v>27772</v>
+        <v>1</v>
       </c>
       <c r="C81" s="1">
         <v>0</v>
@@ -2266,10 +2441,13 @@
         <v>0</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>84</v>
       </c>
@@ -2283,10 +2461,13 @@
         <v>0</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>85</v>
       </c>
@@ -2300,10 +2481,13 @@
         <v>0</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="G83" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>86</v>
       </c>
@@ -2317,10 +2501,13 @@
         <v>0</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="G84" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>87</v>
       </c>
@@ -2334,10 +2521,13 @@
         <v>0</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="G85" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>88</v>
       </c>
@@ -2351,10 +2541,13 @@
         <v>0</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="G86" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>89</v>
       </c>
@@ -2368,15 +2561,18 @@
         <v>0</v>
       </c>
       <c r="E87" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G87" s="6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B88" s="1">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="C88" s="1">
         <v>0</v>
@@ -2385,10 +2581,16 @@
         <v>0</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="F88" t="s">
+        <v>122</v>
+      </c>
+      <c r="G88" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>91</v>
       </c>
@@ -2396,16 +2598,19 @@
         <v>1</v>
       </c>
       <c r="C89" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D89" s="1">
         <v>0</v>
       </c>
       <c r="E89" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G89" s="6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>92</v>
       </c>
@@ -2419,10 +2624,13 @@
         <v>0</v>
       </c>
       <c r="E90" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G90" s="6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>93</v>
       </c>
@@ -2430,16 +2638,19 @@
         <v>1</v>
       </c>
       <c r="C91" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D91" s="1">
         <v>0</v>
       </c>
       <c r="E91" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G91" s="6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>94</v>
       </c>
@@ -2453,10 +2664,13 @@
         <v>0</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="G92" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>95</v>
       </c>
@@ -2470,15 +2684,18 @@
         <v>0</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B94" s="1">
-        <v>1</v>
+        <v>81521</v>
       </c>
       <c r="C94" s="1">
         <v>0</v>
@@ -2487,15 +2704,18 @@
         <v>0</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="G94" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B95" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C95" s="1">
         <v>0</v>
@@ -2504,27 +2724,33 @@
         <v>0</v>
       </c>
       <c r="E95" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G95" s="6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B96" s="1">
-        <v>1</v>
+        <v>6951</v>
       </c>
       <c r="C96" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D96" s="1">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="G96" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>99</v>
       </c>
@@ -2538,35 +2764,38 @@
         <v>0</v>
       </c>
       <c r="E97" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G97" s="6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B98" s="1">
-        <v>123</v>
+        <v>2049</v>
       </c>
       <c r="C98" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D98" s="1">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F98" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="G98" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B99" s="1">
-        <v>11</v>
+        <v>181</v>
       </c>
       <c r="C99" s="1">
         <v>0</v>
@@ -2575,32 +2804,38 @@
         <v>0</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="G99" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B100" s="1">
-        <v>1</v>
+        <v>385</v>
       </c>
       <c r="C100" s="1">
         <v>1</v>
       </c>
       <c r="D100" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="G100" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B101" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C101" s="1">
         <v>0</v>
@@ -2609,10 +2844,13 @@
         <v>0</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="G101" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>104</v>
       </c>
@@ -2620,16 +2858,19 @@
         <v>1</v>
       </c>
       <c r="C102" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D102" s="1">
         <v>0</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="G102" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>105</v>
       </c>
@@ -2643,10 +2884,13 @@
         <v>0</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="G103" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>106</v>
       </c>
@@ -2660,10 +2904,13 @@
         <v>0</v>
       </c>
       <c r="E104" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G104" s="6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
         <v>107</v>
       </c>
@@ -2677,15 +2924,18 @@
         <v>0</v>
       </c>
       <c r="E105" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G105" s="6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B106" s="1">
-        <v>81521</v>
+        <v>1</v>
       </c>
       <c r="C106" s="1">
         <v>0</v>
@@ -2694,15 +2944,18 @@
         <v>0</v>
       </c>
       <c r="E106" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G106" s="6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B107" s="1">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="C107" s="1">
         <v>0</v>
@@ -2711,27 +2964,33 @@
         <v>0</v>
       </c>
       <c r="E107" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G107" s="6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B108" s="1">
-        <v>6951</v>
+        <v>2</v>
       </c>
       <c r="C108" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D108" s="1">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="G108" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
         <v>111</v>
       </c>
@@ -2745,267 +3004,35 @@
         <v>0</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="G109" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B110" s="1">
-        <v>2049</v>
+        <v>1</v>
       </c>
       <c r="C110" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D110" s="1">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A111" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B111" s="1">
-        <v>181</v>
-      </c>
-      <c r="C111" s="1">
-        <v>0</v>
-      </c>
-      <c r="D111" s="1">
-        <v>0</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A112" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B112" s="1">
-        <v>385</v>
-      </c>
-      <c r="C112" s="1">
-        <v>1</v>
-      </c>
-      <c r="D112" s="1">
-        <v>1</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A113" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B113" s="1">
-        <v>1</v>
-      </c>
-      <c r="C113" s="1">
-        <v>0</v>
-      </c>
-      <c r="D113" s="1">
-        <v>0</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A114" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B114" s="1">
-        <v>2</v>
-      </c>
-      <c r="C114" s="1">
-        <v>0</v>
-      </c>
-      <c r="D114" s="1">
-        <v>0</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A115" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B115" s="1">
-        <v>1</v>
-      </c>
-      <c r="C115" s="1">
-        <v>0</v>
-      </c>
-      <c r="D115" s="1">
-        <v>0</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A116" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B116" s="1">
-        <v>1</v>
-      </c>
-      <c r="C116" s="1">
-        <v>0</v>
-      </c>
-      <c r="D116" s="1">
-        <v>0</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A117" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B117" s="1">
-        <v>1</v>
-      </c>
-      <c r="C117" s="1">
-        <v>0</v>
-      </c>
-      <c r="D117" s="1">
-        <v>0</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A118" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B118" s="1">
-        <v>1</v>
-      </c>
-      <c r="C118" s="1">
-        <v>0</v>
-      </c>
-      <c r="D118" s="1">
-        <v>0</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A119" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B119" s="1">
-        <v>1</v>
-      </c>
-      <c r="C119" s="1">
-        <v>0</v>
-      </c>
-      <c r="D119" s="1">
-        <v>0</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A120" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B120" s="1">
-        <v>4</v>
-      </c>
-      <c r="C120" s="1">
-        <v>0</v>
-      </c>
-      <c r="D120" s="1">
-        <v>0</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A121" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B121" s="1">
-        <v>41</v>
-      </c>
-      <c r="C121" s="1">
-        <v>0</v>
-      </c>
-      <c r="D121" s="1">
-        <v>0</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A122" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B122" s="1">
-        <v>2</v>
-      </c>
-      <c r="C122" s="1">
-        <v>0</v>
-      </c>
-      <c r="D122" s="1">
-        <v>0</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A123" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B123" s="1">
-        <v>1</v>
-      </c>
-      <c r="C123" s="1">
-        <v>0</v>
-      </c>
-      <c r="D123" s="1">
-        <v>0</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A124" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B124" s="1">
-        <v>1</v>
-      </c>
-      <c r="C124" s="1">
-        <v>1</v>
-      </c>
-      <c r="D124" s="1">
-        <v>0</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>127</v>
+        <v>113</v>
+      </c>
+      <c r="G110" s="6" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F33" r:id="rId1" xr:uid="{AF314BA4-FED7-4D2C-8D14-4DEFB02F03DF}"/>
+    <hyperlink ref="F27" r:id="rId1" xr:uid="{AF314BA4-FED7-4D2C-8D14-4DEFB02F03DF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
